--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7D593F-2E67-45D9-A804-0CC028739A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8401E6-14FC-45A6-BA39-1C5C6B4377F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="810" windowWidth="26775" windowHeight="15405" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId2"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId2"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +55,26 @@
   </si>
   <si>
     <t>깃 허브 팀 생성 및 저장소 생성(초대 발송)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제 제안서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">요구사항 정의 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 계획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +743,157 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8401E6-14FC-45A6-BA39-1C5C6B4377F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190348AD-ED24-424E-BDE7-3097A5B1A34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="1065" windowWidth="25170" windowHeight="15405" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId2"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId3"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId2"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId3"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,11 +744,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -793,14 +794,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -808,32 +809,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -890,6 +883,153 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190348AD-ED24-424E-BDE7-3097A5B1A34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AAB676-8969-4338-AE13-B47F256AD3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1065" windowWidth="25170" windowHeight="15405" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId2"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId3"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId4"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId2"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId3"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId4"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +77,14 @@
   </si>
   <si>
     <t>작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제출 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시퀀스 다이어그램 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,11 +753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -801,20 +810,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -883,11 +898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -933,14 +948,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -948,32 +963,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -1030,6 +1037,153 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AAB676-8969-4338-AE13-B47F256AD3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D88597-A425-40FC-8A04-8A65552DC09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41115" yWindow="615" windowWidth="25905" windowHeight="13995" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId2"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId3"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId4"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId5"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId2"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId3"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId4"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId5"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +86,10 @@
   </si>
   <si>
     <t xml:space="preserve">시퀀스 다이어그램 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 과제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,11 +758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -803,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -812,16 +817,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -898,11 +901,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -955,20 +958,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1037,11 +1046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1087,14 +1096,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1102,32 +1111,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -1184,6 +1185,153 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D88597-A425-40FC-8A04-8A65552DC09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1181D8-9D65-44FE-8B94-34E8B6F80ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41115" yWindow="615" windowWidth="25905" windowHeight="13995" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="585" windowWidth="25905" windowHeight="13995" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId2"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId3"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId4"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId5"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId6"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId2"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId3"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId4"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId5"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId6"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +91,22 @@
   </si>
   <si>
     <t>스프링 과제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 과제(스프링 시큐리티를 이용한 회원가입, 로그인완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 과제(공지사항 게시판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 분할 및 게시판 골격 작업중.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">같은아이디로 로그인-로그아웃-로그인시에 오류있음. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,11 +775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -808,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -817,14 +834,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -833,7 +852,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -901,11 +922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -951,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -960,16 +981,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1046,11 +1065,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1103,20 +1122,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1185,11 +1210,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1235,14 +1260,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1250,32 +1275,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -1332,6 +1349,153 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1181D8-9D65-44FE-8B94-34E8B6F80ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4519199A-7CFA-47E7-991A-835110C17266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="585" windowWidth="25905" windowHeight="13995" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39120" yWindow="960" windowWidth="25905" windowHeight="13995" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId2"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId3"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId4"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId5"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId6"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId7"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId2"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId3"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId4"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId5"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId6"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId7"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +108,10 @@
   </si>
   <si>
     <t xml:space="preserve">같은아이디로 로그인-로그아웃-로그인시에 오류있음. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">화면 설계서 - 관리 페이지 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,11 +780,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -825,36 +830,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -922,11 +919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -972,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -981,14 +978,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -997,7 +996,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1065,11 +1066,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1115,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1124,16 +1125,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1210,11 +1209,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1267,20 +1266,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1349,11 +1354,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1399,14 +1404,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1414,32 +1419,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -1496,6 +1493,153 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4519199A-7CFA-47E7-991A-835110C17266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806D35B7-4800-487B-958A-4A47F6641B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39120" yWindow="960" windowWidth="25905" windowHeight="13995" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId2"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId3"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId4"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId5"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId6"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId7"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId8"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId2"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId3"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId4"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId5"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId6"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId7"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId8"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +113,18 @@
   </si>
   <si>
     <t xml:space="preserve">화면 설계서 - 관리 페이지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원 등록 페이지 작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 테이블 참고 시트 작성(분류, 속성 테이블 및 게시판 종류 테이블 관련 참고 시트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀파일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,11 +793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -830,28 +843,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -919,11 +940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -969,36 +990,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1066,11 +1079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1116,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1125,14 +1138,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1141,7 +1156,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1209,11 +1226,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1259,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1268,16 +1285,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1354,11 +1369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1411,20 +1426,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1493,11 +1514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1543,14 +1564,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1558,32 +1579,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -1640,6 +1653,153 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806D35B7-4800-487B-958A-4A47F6641B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F233C86-FE8B-412D-97F3-F3A9322CE432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId2"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId3"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId4"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId5"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId6"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId7"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId8"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId9"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId2"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId3"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId4"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId5"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId6"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId7"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId8"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId9"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +126,14 @@
   </si>
   <si>
     <t>엑셀파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계서 - 관리 페이지(사원 등록, 수정, 탈퇴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계서 - 관리 페이지 (분류, 속성 페이지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,12 +801,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -827,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -842,8 +851,143 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -852,16 +996,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -870,9 +1012,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -940,11 +1080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -990,28 +1130,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1079,11 +1227,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1129,36 +1277,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1226,11 +1366,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1276,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1285,14 +1425,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1301,7 +1443,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1369,11 +1513,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1419,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1428,16 +1572,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1514,11 +1656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1571,20 +1713,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1653,11 +1801,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1703,14 +1851,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1718,32 +1866,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -1800,11 +1940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1834,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1849,36 +1989,48 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F233C86-FE8B-412D-97F3-F3A9322CE432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D881AB76-1949-41C7-A596-4ABDC2D346BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27585" yWindow="660" windowWidth="28800" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId2"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId3"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId4"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId5"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId6"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId7"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId8"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId9"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId10"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId2"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId3"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId4"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId5"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId6"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId7"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId8"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId9"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId10"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +135,10 @@
   </si>
   <si>
     <t>화면 설계서 - 관리 페이지 (분류, 속성 페이지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계서 - 관리 페이지 (게시판 종류 추가 페이지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,6 +807,153 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -937,11 +1089,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -987,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1003,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1080,11 +1232,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1130,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1139,16 +1291,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1157,9 +1307,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1227,11 +1375,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1277,28 +1425,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1366,11 +1522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1416,36 +1572,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1513,11 +1661,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1563,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1572,14 +1720,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1588,7 +1738,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1656,11 +1808,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1706,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1715,16 +1867,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1801,11 +1951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1858,20 +2008,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1940,11 +2096,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1990,14 +2146,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -2005,32 +2161,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D881AB76-1949-41C7-A596-4ABDC2D346BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC3D220-B662-4F43-8412-BCFD0D39FAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27585" yWindow="660" windowWidth="28800" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId2"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId3"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId4"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId5"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId6"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId7"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId8"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId9"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId10"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId11"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId2"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId3"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId4"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId5"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId6"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId7"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId8"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId9"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId10"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId11"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +140,10 @@
   </si>
   <si>
     <t>화면 설계서 - 관리 페이지 (게시판 종류 추가 페이지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계서 - 게시판 목록 및 게시판 글 목록, 글쓰기, 수정, 삭제 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,11 +812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -857,14 +862,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -872,32 +877,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -954,6 +951,153 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -1089,11 +1233,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1139,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1155,14 +1299,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -1232,11 +1376,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1282,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1298,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1375,11 +1519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1425,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1434,16 +1578,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1452,9 +1594,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1522,11 +1662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1572,28 +1712,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1661,11 +1809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1711,36 +1859,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1808,11 +1948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1858,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1867,14 +2007,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1883,7 +2025,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1951,11 +2095,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2001,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2010,16 +2154,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2096,11 +2238,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2153,20 +2295,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC3D220-B662-4F43-8412-BCFD0D39FAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CA7C9D-AD40-4692-90C7-C47AFCDE9CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="1245" windowWidth="28800" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId2"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId3"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId4"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId5"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId6"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId7"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId8"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId9"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId10"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId11"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId12"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId2"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId3"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId4"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId5"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId6"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId7"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId8"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId9"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId10"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId11"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId12"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +145,26 @@
   </si>
   <si>
     <t>화면 설계서 - 게시판 목록 및 게시판 글 목록, 글쓰기, 수정, 삭제 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계서 V1.0 (피그마 to pptx 변환)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계서 V1.1 (pptx 변환중 미비사항 반영)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계서 갱신에 의한 후순위 밀림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,11 +833,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -869,20 +890,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -951,11 +978,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1001,14 +1028,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1016,32 +1043,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -1098,6 +1117,153 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -1233,11 +1399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1283,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1292,14 +1458,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1308,19 +1476,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1376,11 +1552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1426,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1442,14 +1618,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -1519,11 +1695,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1569,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1585,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1662,11 +1838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1712,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1721,16 +1897,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1739,9 +1913,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1809,11 +1981,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1859,28 +2031,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1948,11 +2128,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1998,36 +2178,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2095,11 +2267,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2145,7 +2317,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2154,14 +2326,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2170,7 +2344,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2238,11 +2414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2288,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2297,16 +2473,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CA7C9D-AD40-4692-90C7-C47AFCDE9CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2820692-C1B6-4D4D-A830-C7F59FBE7BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1245" windowWidth="28800" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId2"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId3"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId4"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId5"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId6"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId7"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId8"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId9"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId10"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId11"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId12"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId13"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId2"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId3"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId4"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId5"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId6"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId7"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId8"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId9"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId10"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId11"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId12"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId13"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="32">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +166,14 @@
   </si>
   <si>
     <t>화면설계서 갱신에 의한 후순위 밀림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부트스트랩을 이용하여 좌측 사이드바, 상단 네비바 구조 작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑(관리페이지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,11 +842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -883,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -892,16 +901,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -978,11 +985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1035,20 +1042,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1117,11 +1130,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1167,14 +1180,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1182,32 +1195,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -1264,6 +1269,153 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -1399,11 +1551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1449,54 +1601,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1552,11 +1692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1602,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1611,14 +1751,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1627,19 +1769,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1695,11 +1845,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1745,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1761,14 +1911,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -1838,11 +1988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1888,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1904,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1981,11 +2131,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2031,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2040,16 +2190,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2058,9 +2206,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2128,11 +2274,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2178,28 +2324,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2267,11 +2421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2317,36 +2471,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2414,11 +2560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2464,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2473,14 +2619,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2489,7 +2637,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2820692-C1B6-4D4D-A830-C7F59FBE7BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A86EB1E-2311-4C88-BEC6-9856FE608CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId2"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId3"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId4"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId5"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId6"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId7"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId8"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId9"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId10"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId11"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId12"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId13"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId14"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId2"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId3"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId4"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId5"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId6"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId7"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId8"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId9"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId10"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId11"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId12"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId13"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId14"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +175,22 @@
   </si>
   <si>
     <t>프로토타이핑(관리페이지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부트스트랩 템플릿 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 사이드바, 네비바 완료, 관리자 페이지 회원 목록 출력 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 게시판 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툴팁 표시 오류 해결중.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,11 +859,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -892,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -901,14 +918,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -917,7 +936,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -985,11 +1006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1035,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1044,16 +1065,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1130,11 +1149,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1187,20 +1206,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1269,11 +1294,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1319,14 +1344,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1334,32 +1359,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -1416,6 +1433,153 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -1551,11 +1715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1601,30 +1765,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1692,11 +1862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1742,54 +1912,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1845,11 +2003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1895,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1904,14 +2062,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1920,19 +2080,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1988,11 +2156,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2038,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2054,14 +2222,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -2131,11 +2299,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2181,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2197,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2274,11 +2442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2324,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2333,16 +2501,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2351,9 +2517,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2421,11 +2585,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2471,28 +2635,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2560,11 +2732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2610,36 +2782,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A86EB1E-2311-4C88-BEC6-9856FE608CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D9D0AE-DF21-4574-BCAB-112D1081709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="780" windowWidth="28800" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId2"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId3"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId4"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId5"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId6"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId7"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId8"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId9"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId10"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId11"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId12"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId13"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId14"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId15"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId2"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId3"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId4"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId5"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId6"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId7"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId8"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId9"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId10"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId11"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId12"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId13"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId14"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId15"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId16"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="40">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +193,24 @@
   </si>
   <si>
     <t>툴팁 표시 오류 해결중.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 게시판 목록, 분류, 속성 기본 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 사원 목록 페이지 디테일 작업 (멀티 모달)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부트스트랩 5.2 이상에서 멀티 모달을 허용하지 않음으로 해결방법 찾는중.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티 모달을 직접 생성하고 해제하는 open/close 함수를 사용해서 멀티모달 해결함. 
+(2차모달에서 1차모달을 닫는데 이러한 구조는  ARIA Authoring Practices Guide dialog (modal) pattern과 일치하지 않는다고 한다.)
+멀티 모달을 허용하지 않는 것으로보아 이런 구조는 좋지 않은 것으로 보임. 이번에는 화면 설계서에 작성한대로 작업했지만, 다음 설계시에는 고려해야 할 듯함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,7 +879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -909,7 +929,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -919,7 +939,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -927,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -937,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1006,11 +1026,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1056,14 +1076,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1071,16 +1091,12 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1149,11 +1165,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1199,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1209,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -1217,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1226,7 +1242,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1294,11 +1312,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1344,14 +1362,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1359,12 +1377,16 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1433,11 +1455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1483,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1492,21 +1514,23 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -1514,16 +1538,12 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -1580,6 +1600,292 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -1715,11 +2021,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1744,57 +2050,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1862,11 +2158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1912,30 +2208,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2003,11 +2303,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2053,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2063,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2071,36 +2371,30 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2156,11 +2450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2206,31 +2500,29 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -2299,11 +2591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2349,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2358,35 +2650,45 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2442,11 +2744,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2492,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2508,14 +2810,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -2585,11 +2887,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2635,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2644,16 +2946,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2662,9 +2962,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2732,11 +3030,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2782,14 +3080,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -2797,12 +3095,16 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D9D0AE-DF21-4574-BCAB-112D1081709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA67A6AA-DE83-43BD-9C1E-F7449197FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="780" windowWidth="28800" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId2"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId3"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId4"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId5"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId6"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId7"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId8"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId9"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId10"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId11"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId12"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId13"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId14"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId15"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId16"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId17"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId2"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId3"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId4"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId5"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId6"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId7"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId8"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId9"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId10"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId11"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId12"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId13"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId14"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId15"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId16"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId17"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="43">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +212,18 @@
     <t>멀티 모달을 직접 생성하고 해제하는 open/close 함수를 사용해서 멀티모달 해결함. 
 (2차모달에서 1차모달을 닫는데 이러한 구조는  ARIA Authoring Practices Guide dialog (modal) pattern과 일치하지 않는다고 한다.)
 멀티 모달을 허용하지 않는 것으로보아 이런 구조는 좋지 않은 것으로 보임. 이번에는 화면 설계서에 작성한대로 작업했지만, 다음 설계시에는 고려해야 할 듯함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 분류, 속성 디테일 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 게시판 추가 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리뷰 구현에 어려움이 있음(약간의 UI 변경이 필요함)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -879,11 +892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -929,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -938,16 +951,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -956,9 +967,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1026,11 +1035,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1076,28 +1085,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1165,11 +1182,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1215,36 +1232,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1312,11 +1321,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1362,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1371,14 +1380,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1387,7 +1398,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1455,11 +1468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1505,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1514,16 +1527,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1600,11 +1611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1657,20 +1668,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1739,11 +1756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1789,14 +1806,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1804,32 +1821,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -1886,6 +1895,153 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -2021,11 +2177,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2050,12 +2206,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2064,21 +2220,25 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -2158,11 +2318,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2187,55 +2347,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2303,11 +2455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2353,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2362,16 +2514,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2381,7 +2531,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -2450,11 +2600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2500,30 +2650,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2591,11 +2747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2641,54 +2797,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2744,11 +2888,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2794,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2803,14 +2947,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2819,19 +2965,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2887,11 +3041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2937,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2953,14 +3107,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -3030,11 +3184,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3080,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3096,7 +3250,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA67A6AA-DE83-43BD-9C1E-F7449197FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DA97FE-73D4-48A3-92FF-0FBD37CD5E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6315" yWindow="-315" windowWidth="28800" windowHeight="15480" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId2"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId3"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId4"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId5"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId6"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId7"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId8"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId9"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId10"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId11"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId12"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId13"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId14"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId15"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId16"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId17"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId18"/>
+    <sheet name="2024.03.27" sheetId="39" r:id="rId2"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId3"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId4"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId5"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId6"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId7"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId8"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId9"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId10"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId11"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId12"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId13"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId14"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId15"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId16"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId17"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId18"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="45">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +225,14 @@
   </si>
   <si>
     <t>트리뷰 구현에 어려움이 있음(약간의 UI 변경이 필요함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토링 이후 zTree라이브러리 적용중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,11 +901,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -942,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -958,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1035,11 +1044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1085,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1094,16 +1103,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1112,9 +1119,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1182,11 +1187,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1232,28 +1237,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1321,11 +1334,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1371,36 +1384,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1468,11 +1473,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1518,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1527,14 +1532,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1543,7 +1550,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1611,11 +1620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1661,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1670,16 +1679,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1756,11 +1763,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1813,20 +1820,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1895,11 +1908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1945,14 +1958,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1960,32 +1973,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -2042,6 +2047,153 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -2177,11 +2329,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2211,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2227,30 +2379,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2318,11 +2474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2347,12 +2503,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2361,21 +2517,25 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -2455,11 +2615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2484,55 +2644,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2600,11 +2752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2650,7 +2802,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2659,16 +2811,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2678,7 +2828,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -2747,11 +2897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2797,30 +2947,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2888,11 +3044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2938,54 +3094,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -3041,11 +3185,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3091,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3100,14 +3244,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3116,19 +3262,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -3184,11 +3338,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3234,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3250,14 +3404,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DA97FE-73D4-48A3-92FF-0FBD37CD5E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7866D4A8-5AA7-4B46-A674-D6E270774C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="-315" windowWidth="28800" windowHeight="15480" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="0" windowWidth="28800" windowHeight="15480" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.27" sheetId="39" r:id="rId2"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId3"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId4"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId5"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId6"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId7"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId8"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId9"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId10"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId11"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId12"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId13"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId14"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId15"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId16"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId17"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId18"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId19"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId2"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId3"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId4"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId5"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId6"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId7"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId8"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId9"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId10"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId11"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId12"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId13"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId14"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId15"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId16"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId17"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId18"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId19"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="46">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +234,10 @@
   </si>
   <si>
     <t>멘토링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zTree라이브러리 작용 완료, 게시판 추가(데이터 테이블 추가 작업중)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,11 +906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -951,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -967,14 +972,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -1044,11 +1049,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1094,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1110,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1187,11 +1192,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1237,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1246,16 +1251,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1264,9 +1267,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1334,11 +1335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1384,28 +1385,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1473,11 +1482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1523,36 +1532,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1620,11 +1621,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1670,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1679,14 +1680,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1695,7 +1698,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1763,11 +1768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1813,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1822,16 +1827,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1908,11 +1911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1965,20 +1968,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -2047,11 +2056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2097,14 +2106,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -2112,32 +2121,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -2194,11 +2195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2228,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2243,36 +2244,48 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -2329,11 +2342,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2370,7 +2383,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -2379,34 +2392,165 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2474,11 +2618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2508,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2524,30 +2668,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2615,11 +2763,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2644,12 +2792,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2658,21 +2806,25 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -2752,11 +2904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2781,55 +2933,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2897,11 +3041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2947,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2956,16 +3100,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2975,7 +3117,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -3044,11 +3186,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3094,30 +3236,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3185,11 +3333,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3235,54 +3383,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -3338,11 +3474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3388,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3397,14 +3533,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3413,19 +3551,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7866D4A8-5AA7-4B46-A674-D6E270774C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626D5F43-823D-4101-A989-7D21FC2AC7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="0" windowWidth="28800" windowHeight="15480" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6255" yWindow="195" windowWidth="28800" windowHeight="15480" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.27" sheetId="40" r:id="rId2"/>
-    <sheet name="2024.03.26" sheetId="39" r:id="rId3"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId4"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId5"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId6"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId7"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId8"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId9"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId10"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId11"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId12"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId13"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId14"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId15"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId16"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId17"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId18"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId19"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId20"/>
+    <sheet name="2024.03.28" sheetId="41" r:id="rId2"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId3"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId4"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId5"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId6"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId7"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId8"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId9"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId10"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId11"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId12"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId13"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId14"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId15"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId16"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId17"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId18"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId19"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId20"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="48">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +239,14 @@
   </si>
   <si>
     <t>zTree라이브러리 작용 완료, 게시판 추가(데이터 테이블 추가 작업중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 블로그 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기가지 중간 발표 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,11 +915,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -956,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -965,14 +974,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -981,19 +992,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1049,11 +1068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1099,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1115,14 +1134,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -1192,11 +1211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1242,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1258,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1335,11 +1354,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1385,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1394,16 +1413,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1412,9 +1429,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1482,11 +1497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1532,28 +1547,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1621,11 +1644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1671,36 +1694,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1768,11 +1783,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1818,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1827,14 +1842,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1843,7 +1860,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1911,11 +1930,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1961,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1970,16 +1989,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2056,11 +2073,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2113,20 +2130,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -2195,11 +2218,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2245,14 +2268,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -2260,32 +2283,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -2342,11 +2357,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2383,7 +2398,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -2399,22 +2414,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -2483,6 +2502,153 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -2618,11 +2784,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2659,7 +2825,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -2668,34 +2834,30 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2763,11 +2925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2797,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2813,30 +2975,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2904,11 +3070,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2933,12 +3099,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2947,21 +3113,25 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -3041,11 +3211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3070,55 +3240,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3186,11 +3348,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3236,7 +3398,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3245,16 +3407,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3264,7 +3424,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -3333,11 +3493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3383,30 +3543,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3474,11 +3640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3524,54 +3690,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,32 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626D5F43-823D-4101-A989-7D21FC2AC7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072F32A-31EE-4B9C-9E16-87A51BB8DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="195" windowWidth="28800" windowHeight="15480" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30765" yWindow="720" windowWidth="29040" windowHeight="15480" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.28" sheetId="41" r:id="rId2"/>
-    <sheet name="2024.03.27" sheetId="40" r:id="rId3"/>
-    <sheet name="2024.03.26" sheetId="39" r:id="rId4"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId5"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId6"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId7"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId8"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId9"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId10"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId11"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId12"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId13"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId14"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId15"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId16"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId17"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId18"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId19"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId20"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId21"/>
+    <sheet name="2024.03.31" sheetId="43" r:id="rId2"/>
+    <sheet name="2024.03.29" sheetId="42" r:id="rId3"/>
+    <sheet name="2024.03.28" sheetId="41" r:id="rId4"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId5"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId6"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId7"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId8"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId9"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId10"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId11"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId12"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId13"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId14"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId15"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId16"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId17"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId18"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId19"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId20"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId21"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId22"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="52">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +249,22 @@
   </si>
   <si>
     <t>여기가지 중간 발표 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 채팅 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,11 +933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -965,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -975,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -983,36 +1001,30 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1068,11 +1080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1118,31 +1130,29 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1211,11 +1221,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1261,7 +1271,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1270,35 +1280,45 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1354,11 +1374,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1404,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1420,14 +1440,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -1497,11 +1517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1547,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1556,16 +1576,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1574,9 +1592,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1644,11 +1660,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1694,14 +1710,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1709,12 +1725,16 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1783,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1833,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1843,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -1851,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1861,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1930,11 +1950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1980,14 +2000,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1995,16 +2015,12 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -2073,11 +2089,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2123,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2133,7 +2149,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2141,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2150,7 +2166,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2218,11 +2236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2268,14 +2286,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -2283,12 +2301,16 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -2357,11 +2379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2391,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2407,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2416,16 +2438,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2502,11 +2522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2552,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2561,21 +2581,23 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -2583,16 +2605,12 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -2649,6 +2667,292 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -2784,11 +3088,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2825,7 +3129,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -2834,29 +3138,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -2925,11 +3231,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2975,7 +3281,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2984,14 +3290,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3000,9 +3308,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3070,11 +3376,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3104,14 +3410,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -3130,7 +3436,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -3211,11 +3517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3240,12 +3546,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -3254,33 +3560,41 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3348,11 +3662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3382,13 +3696,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="11"/>
@@ -3398,34 +3712,30 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3493,11 +3803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3522,57 +3832,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3640,11 +3940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3690,30 +3990,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,34 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072F32A-31EE-4B9C-9E16-87A51BB8DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B417406-52EE-498E-84DC-5E5A78CAE6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30765" yWindow="720" windowWidth="29040" windowHeight="15480" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="750" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.31" sheetId="43" r:id="rId2"/>
-    <sheet name="2024.03.29" sheetId="42" r:id="rId3"/>
-    <sheet name="2024.03.28" sheetId="41" r:id="rId4"/>
-    <sheet name="2024.03.27" sheetId="40" r:id="rId5"/>
-    <sheet name="2024.03.26" sheetId="39" r:id="rId6"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId7"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId8"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId9"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId10"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId11"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId12"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId13"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId14"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId15"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId16"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId17"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId18"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId19"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId20"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId21"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId22"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId23"/>
+    <sheet name="2024.04.01" sheetId="44" r:id="rId2"/>
+    <sheet name="2024.03.31" sheetId="43" r:id="rId3"/>
+    <sheet name="2024.03.29" sheetId="42" r:id="rId4"/>
+    <sheet name="2024.03.28" sheetId="41" r:id="rId5"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId6"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId7"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId8"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId9"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId10"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId11"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId12"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId13"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId14"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId15"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId16"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId17"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId18"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId19"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId20"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId21"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId22"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId23"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="53">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +266,10 @@
   </si>
   <si>
     <t>프로토타이핑 - 게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원 목록 완료. 채팅 룸 작업중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,11 +938,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -983,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -992,16 +997,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1011,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1080,11 +1083,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1130,30 +1133,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1221,11 +1230,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1271,54 +1280,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1374,11 +1371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1424,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1433,14 +1430,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1449,19 +1448,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1517,11 +1524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1567,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1583,14 +1590,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -1660,11 +1667,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1710,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1726,7 +1733,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1803,11 +1810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1853,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1862,16 +1869,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1880,9 +1885,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1950,11 +1953,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2000,28 +2003,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2089,11 +2100,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2139,36 +2150,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2236,11 +2239,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2286,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2295,14 +2298,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2311,7 +2316,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2379,11 +2386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2413,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2429,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2454,7 +2461,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2522,11 +2531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2572,7 +2581,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2581,16 +2590,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2667,11 +2674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2724,20 +2731,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -2806,11 +2819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2856,14 +2869,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -2871,32 +2884,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -2953,6 +2958,153 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -3088,11 +3240,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3122,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -3138,7 +3290,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3154,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3231,11 +3383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3281,7 +3433,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3290,9 +3442,7 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -3376,11 +3526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3417,7 +3567,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -3433,22 +3583,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -3517,11 +3671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3558,7 +3712,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -3567,34 +3721,30 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3662,11 +3812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3696,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -3712,30 +3862,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3803,11 +3957,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3832,12 +3986,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -3846,21 +4000,25 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -3940,11 +4098,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3969,55 +4127,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,35 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B417406-52EE-498E-84DC-5E5A78CAE6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5B5595-F7C0-42F4-A12E-4E228C000309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="750" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.01" sheetId="44" r:id="rId2"/>
-    <sheet name="2024.03.31" sheetId="43" r:id="rId3"/>
-    <sheet name="2024.03.29" sheetId="42" r:id="rId4"/>
-    <sheet name="2024.03.28" sheetId="41" r:id="rId5"/>
-    <sheet name="2024.03.27" sheetId="40" r:id="rId6"/>
-    <sheet name="2024.03.26" sheetId="39" r:id="rId7"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId8"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId9"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId10"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId11"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId12"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId13"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId14"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId15"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId16"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId17"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId18"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId19"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId20"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId21"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId22"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId23"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId24"/>
+    <sheet name="2024.04.02" sheetId="45" r:id="rId2"/>
+    <sheet name="2024.04.01" sheetId="44" r:id="rId3"/>
+    <sheet name="2024.03.31" sheetId="43" r:id="rId4"/>
+    <sheet name="2024.03.29" sheetId="42" r:id="rId5"/>
+    <sheet name="2024.03.28" sheetId="41" r:id="rId6"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId7"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId8"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId9"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId10"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId11"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId12"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId13"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId14"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId15"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId16"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId17"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId18"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId19"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId20"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId21"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId22"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId23"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId24"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="54">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +271,10 @@
   </si>
   <si>
     <t>사원 목록 완료. 채팅 룸 작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,11 +943,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -967,55 +972,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1083,11 +1080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1133,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1142,16 +1139,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1161,7 +1156,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1230,11 +1225,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1280,30 +1275,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1371,11 +1372,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1421,54 +1422,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1524,11 +1513,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1574,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1583,14 +1572,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1599,19 +1590,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1667,11 +1666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1717,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1733,14 +1732,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -1810,11 +1809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1860,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1876,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1953,11 +1952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2003,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2012,16 +2011,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2030,9 +2027,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2100,11 +2095,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2150,28 +2145,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2239,11 +2242,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2289,36 +2292,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2386,11 +2381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2436,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2452,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2461,9 +2456,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2531,11 +2524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2581,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2590,14 +2583,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2606,7 +2601,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2674,11 +2671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2724,7 +2721,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2733,16 +2730,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2819,11 +2814,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2876,20 +2871,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -2958,11 +2959,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3008,14 +3009,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -3023,32 +3024,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -3105,6 +3098,153 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -3240,11 +3380,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3274,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -3290,7 +3430,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3315,7 +3455,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3383,11 +3525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3417,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -3433,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3449,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3526,11 +3668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3576,7 +3718,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3585,9 +3727,7 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -3671,11 +3811,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3712,7 +3852,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -3728,22 +3868,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -3812,11 +3956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3853,7 +3997,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -3862,34 +4006,30 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3957,11 +4097,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3991,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4007,30 +4147,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4098,11 +4242,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4127,12 +4271,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4141,21 +4285,25 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,36 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5B5595-F7C0-42F4-A12E-4E228C000309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4E2A0D-E0DB-46A2-8E53-4F8E3BD66D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.02" sheetId="45" r:id="rId2"/>
-    <sheet name="2024.04.01" sheetId="44" r:id="rId3"/>
-    <sheet name="2024.03.31" sheetId="43" r:id="rId4"/>
-    <sheet name="2024.03.29" sheetId="42" r:id="rId5"/>
-    <sheet name="2024.03.28" sheetId="41" r:id="rId6"/>
-    <sheet name="2024.03.27" sheetId="40" r:id="rId7"/>
-    <sheet name="2024.03.26" sheetId="39" r:id="rId8"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId9"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId10"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId11"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId12"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId13"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId14"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId15"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId16"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId17"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId18"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId19"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId20"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId21"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId22"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId23"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId24"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId25"/>
+    <sheet name="2024.04.04" sheetId="46" r:id="rId2"/>
+    <sheet name="2024.04.02" sheetId="45" r:id="rId3"/>
+    <sheet name="2024.04.01" sheetId="44" r:id="rId4"/>
+    <sheet name="2024.03.31" sheetId="43" r:id="rId5"/>
+    <sheet name="2024.03.29" sheetId="42" r:id="rId6"/>
+    <sheet name="2024.03.28" sheetId="41" r:id="rId7"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId8"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId9"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId10"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId11"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId12"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId13"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId14"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId15"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId16"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId17"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId18"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId19"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId20"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId21"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId22"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId23"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId24"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId25"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="56">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +276,14 @@
   </si>
   <si>
     <t>블로그 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 구현 - 쓰기/홈화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 작성 일부 구현 완료, 홈화면 보기 작업 일부 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,11 +952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -972,12 +981,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -986,21 +995,25 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -1080,11 +1093,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1109,55 +1122,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1225,11 +1230,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1275,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1284,16 +1289,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1303,7 +1306,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1372,11 +1375,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1422,30 +1425,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1513,11 +1522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1563,54 +1572,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1666,11 +1663,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1716,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1725,14 +1722,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1741,19 +1740,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1809,11 +1816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1859,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1875,14 +1882,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -1952,11 +1959,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2002,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2018,7 +2025,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2095,11 +2102,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2145,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2154,16 +2161,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2172,9 +2177,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2242,11 +2245,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2292,28 +2295,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2381,7 +2392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2431,31 +2442,29 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -2524,11 +2533,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2574,36 +2583,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2671,11 +2672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2721,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2730,14 +2731,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2746,7 +2749,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2814,11 +2819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2864,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2873,16 +2878,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2959,11 +2962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3016,20 +3019,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -3098,11 +3107,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3148,14 +3157,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -3163,32 +3172,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -3245,6 +3246,153 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -3380,11 +3528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3430,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3446,7 +3594,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3455,9 +3603,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3525,11 +3671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3559,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -3575,7 +3721,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3600,7 +3746,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3668,11 +3816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3702,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -3718,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3734,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3811,11 +3959,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3861,7 +4009,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3870,9 +4018,7 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -3956,11 +4102,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3997,7 +4143,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -4013,22 +4159,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -4097,11 +4247,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4138,7 +4288,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -4147,34 +4297,30 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4242,11 +4388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4276,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4292,30 +4438,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -1,44 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4E2A0D-E0DB-46A2-8E53-4F8E3BD66D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B794172A-699E-4610-A961-A02C9CDC53A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.04" sheetId="46" r:id="rId2"/>
-    <sheet name="2024.04.02" sheetId="45" r:id="rId3"/>
-    <sheet name="2024.04.01" sheetId="44" r:id="rId4"/>
-    <sheet name="2024.03.31" sheetId="43" r:id="rId5"/>
-    <sheet name="2024.03.29" sheetId="42" r:id="rId6"/>
-    <sheet name="2024.03.28" sheetId="41" r:id="rId7"/>
-    <sheet name="2024.03.27" sheetId="40" r:id="rId8"/>
-    <sheet name="2024.03.26" sheetId="39" r:id="rId9"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId10"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId11"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId12"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId13"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId14"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId15"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId16"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId17"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId18"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId19"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId20"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId21"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId22"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId23"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId24"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId25"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId26"/>
+    <sheet name="2024.04.07" sheetId="47" r:id="rId2"/>
+    <sheet name="2024.04.04" sheetId="46" r:id="rId3"/>
+    <sheet name="2024.04.02" sheetId="45" r:id="rId4"/>
+    <sheet name="2024.04.01" sheetId="44" r:id="rId5"/>
+    <sheet name="2024.03.31" sheetId="43" r:id="rId6"/>
+    <sheet name="2024.03.29" sheetId="42" r:id="rId7"/>
+    <sheet name="2024.03.28" sheetId="41" r:id="rId8"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId9"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId10"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId11"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId12"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId13"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId14"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId15"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId16"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId17"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId18"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId19"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId20"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId21"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId22"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId23"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId24"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId25"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId26"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="63">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +285,34 @@
   </si>
   <si>
     <t>블로그 작성 일부 구현 완료, 홈화면 보기 작업 일부 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목/내용완료, 폴더 없는경우 자동생성(기본폴더) / 파일등록, 폴더 생성 등 디테일 미완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 - 홈화면 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 - 블로그 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 - 사이드바 네비게이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신이 작성한 게시글 트리목록으로 표현(트리) 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴사자 블로그, 팀 블로그(blogView 설정), 제목, 내용 완료 / 프로파일 이미지, 댓글, 첨부파일, 블로그 검색 미완료.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,11 +981,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -986,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1002,30 +1031,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1093,11 +1126,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1122,12 +1155,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1136,21 +1169,25 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -1230,11 +1267,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1259,55 +1296,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1375,11 +1404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1425,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1434,16 +1463,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1453,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1522,11 +1549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1572,30 +1599,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1663,11 +1696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1713,54 +1746,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1816,11 +1837,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1866,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1875,14 +1896,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1891,19 +1914,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1959,11 +1990,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2009,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2025,14 +2056,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -2102,11 +2133,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2152,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2168,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2245,11 +2276,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2295,7 +2326,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2304,16 +2335,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2322,9 +2351,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2392,11 +2419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2421,51 +2448,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="28.5" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2533,11 +2568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2583,28 +2618,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2672,11 +2715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2722,36 +2765,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2819,11 +2854,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2869,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2878,14 +2913,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2894,7 +2931,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2962,11 +3001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3012,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3021,16 +3060,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3107,11 +3144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3164,20 +3201,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -3246,11 +3289,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3296,14 +3339,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -3311,32 +3354,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -3393,6 +3428,153 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -3528,11 +3710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3578,31 +3760,29 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -3671,11 +3851,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3721,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3737,7 +3917,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3746,9 +3926,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3816,11 +3994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3850,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -3866,7 +4044,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3891,7 +4069,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3959,11 +4139,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3993,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4009,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4025,7 +4205,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -4102,11 +4282,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4152,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4161,9 +4341,7 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -4247,11 +4425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4288,7 +4466,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -4304,22 +4482,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -4388,11 +4570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4429,7 +4611,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -4438,34 +4620,30 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,38 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B794172A-699E-4610-A961-A02C9CDC53A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5779B7D5-2099-4D1A-BA4B-265CD6FD6ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.07" sheetId="47" r:id="rId2"/>
-    <sheet name="2024.04.04" sheetId="46" r:id="rId3"/>
-    <sheet name="2024.04.02" sheetId="45" r:id="rId4"/>
-    <sheet name="2024.04.01" sheetId="44" r:id="rId5"/>
-    <sheet name="2024.03.31" sheetId="43" r:id="rId6"/>
-    <sheet name="2024.03.29" sheetId="42" r:id="rId7"/>
-    <sheet name="2024.03.28" sheetId="41" r:id="rId8"/>
-    <sheet name="2024.03.27" sheetId="40" r:id="rId9"/>
-    <sheet name="2024.03.26" sheetId="39" r:id="rId10"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId11"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId12"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId13"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId14"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId15"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId16"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId17"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId18"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId19"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId20"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId21"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId22"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId23"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId24"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId25"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId26"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId27"/>
+    <sheet name="2024.04.08" sheetId="48" r:id="rId2"/>
+    <sheet name="2024.04.07" sheetId="47" r:id="rId3"/>
+    <sheet name="2024.04.04" sheetId="46" r:id="rId4"/>
+    <sheet name="2024.04.02" sheetId="45" r:id="rId5"/>
+    <sheet name="2024.04.01" sheetId="44" r:id="rId6"/>
+    <sheet name="2024.03.31" sheetId="43" r:id="rId7"/>
+    <sheet name="2024.03.29" sheetId="42" r:id="rId8"/>
+    <sheet name="2024.03.28" sheetId="41" r:id="rId9"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId10"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId11"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId12"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId13"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId14"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId15"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId16"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId17"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId18"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId19"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId20"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId21"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId22"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId23"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId24"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId25"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId26"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId27"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="66">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +314,18 @@
   </si>
   <si>
     <t>퇴사자 블로그, 팀 블로그(blogView 설정), 제목, 내용 완료 / 프로파일 이미지, 댓글, 첨부파일, 블로그 검색 미완료.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 - 타인 블로그/페이지 지정 블로그 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 - 댓글 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,11 +994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1022,7 +1035,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1031,34 +1044,30 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1126,11 +1135,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1160,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1176,30 +1185,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1267,11 +1280,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1296,12 +1309,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1310,21 +1323,25 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -1404,11 +1421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1433,55 +1450,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1549,11 +1558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1599,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1608,16 +1617,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1627,7 +1634,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1696,11 +1703,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1746,30 +1753,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1837,11 +1850,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1887,54 +1900,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -1990,11 +1991,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2040,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2049,14 +2050,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2065,19 +2068,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2133,11 +2144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2183,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2199,14 +2210,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -2276,11 +2287,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2326,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2342,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2419,11 +2430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49514AD-08B4-4C56-9C72-CD41C44D36C8}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2448,58 +2459,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="28.5" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>57</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -2568,11 +2575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2618,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2627,16 +2634,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2645,9 +2650,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2715,11 +2718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2765,28 +2768,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2854,11 +2865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2904,36 +2915,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3001,11 +3004,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3051,7 +3054,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3060,14 +3063,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3076,7 +3081,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3144,11 +3151,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3194,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3203,16 +3210,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3289,11 +3294,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3346,20 +3351,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -3428,11 +3439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3478,14 +3489,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -3493,32 +3504,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -3575,6 +3578,153 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -3710,11 +3860,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3739,51 +3889,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="28.5" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3851,11 +4009,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3901,31 +4059,29 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -3994,11 +4150,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4044,7 +4200,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4060,7 +4216,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -4069,9 +4225,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4139,11 +4293,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4173,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4189,7 +4343,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4214,7 +4368,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4282,11 +4438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4316,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4332,7 +4488,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4348,7 +4504,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -4425,11 +4581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4475,7 +4631,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4484,9 +4640,7 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -4570,11 +4724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4611,7 +4765,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -4627,22 +4781,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,39 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5779B7D5-2099-4D1A-BA4B-265CD6FD6ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD27CC-821E-42E8-AD80-4E24CCF5149D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.08" sheetId="48" r:id="rId2"/>
-    <sheet name="2024.04.07" sheetId="47" r:id="rId3"/>
-    <sheet name="2024.04.04" sheetId="46" r:id="rId4"/>
-    <sheet name="2024.04.02" sheetId="45" r:id="rId5"/>
-    <sheet name="2024.04.01" sheetId="44" r:id="rId6"/>
-    <sheet name="2024.03.31" sheetId="43" r:id="rId7"/>
-    <sheet name="2024.03.29" sheetId="42" r:id="rId8"/>
-    <sheet name="2024.03.28" sheetId="41" r:id="rId9"/>
-    <sheet name="2024.03.27" sheetId="40" r:id="rId10"/>
-    <sheet name="2024.03.26" sheetId="39" r:id="rId11"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId12"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId13"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId14"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId15"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId16"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId17"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId18"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId19"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId20"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId21"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId22"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId23"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId24"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId25"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId26"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId27"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId28"/>
+    <sheet name="2024.04.09" sheetId="49" r:id="rId2"/>
+    <sheet name="2024.04.08" sheetId="48" r:id="rId3"/>
+    <sheet name="2024.04.07" sheetId="47" r:id="rId4"/>
+    <sheet name="2024.04.04" sheetId="46" r:id="rId5"/>
+    <sheet name="2024.04.02" sheetId="45" r:id="rId6"/>
+    <sheet name="2024.04.01" sheetId="44" r:id="rId7"/>
+    <sheet name="2024.03.31" sheetId="43" r:id="rId8"/>
+    <sheet name="2024.03.29" sheetId="42" r:id="rId9"/>
+    <sheet name="2024.03.28" sheetId="41" r:id="rId10"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId11"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId12"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId13"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId14"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId15"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId16"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId17"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId18"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId19"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId20"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId21"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId22"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId23"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId24"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId25"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId26"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId27"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId28"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="67">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +327,10 @@
   </si>
   <si>
     <t>미완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 권한 확인 유틸리티 클래스 작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,11 +999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1035,7 +1040,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1051,22 +1056,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1135,11 +1144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1176,7 +1185,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1185,34 +1194,30 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1280,11 +1285,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1314,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1330,30 +1335,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1421,11 +1430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1450,12 +1459,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1464,21 +1473,25 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -1558,11 +1571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1587,55 +1600,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1703,11 +1708,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1753,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1762,16 +1767,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1781,7 +1784,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1850,11 +1853,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1900,30 +1903,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1991,11 +2000,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2041,54 +2050,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2144,11 +2141,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2194,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2203,14 +2200,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2219,19 +2218,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2287,11 +2294,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2337,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2353,14 +2360,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -2430,7 +2437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49514AD-08B4-4C56-9C72-CD41C44D36C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B420ACCE-E3D0-4ED2-9A3B-61E58CFB999A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2464,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2480,14 +2487,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -2495,19 +2502,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2575,11 +2576,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2625,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2641,7 +2642,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2718,11 +2719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2768,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2777,16 +2778,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2795,9 +2794,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2865,11 +2862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2915,28 +2912,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3004,11 +3009,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3054,36 +3059,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3151,11 +3148,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3201,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3210,14 +3207,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3226,7 +3225,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3294,11 +3295,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3344,7 +3345,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3353,16 +3354,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3439,11 +3438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3496,20 +3495,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -3578,11 +3583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3628,14 +3633,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -3643,32 +3648,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -3725,6 +3722,153 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -3860,11 +4004,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49514AD-08B4-4C56-9C72-CD41C44D36C8}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3889,58 +4033,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="28.5" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>57</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -4009,11 +4149,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4038,51 +4178,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="28.5" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4150,11 +4298,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4200,31 +4348,29 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -4293,11 +4439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4343,7 +4489,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4359,7 +4505,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -4368,9 +4514,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4438,11 +4582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4472,7 +4616,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4488,7 +4632,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4513,7 +4657,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4581,11 +4727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4615,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4631,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4647,7 +4793,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -4724,11 +4870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4774,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4783,9 +4929,7 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,40 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD27CC-821E-42E8-AD80-4E24CCF5149D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8239AA-69F1-40AC-B245-B0CD02FF467B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27705" yWindow="105" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.09" sheetId="49" r:id="rId2"/>
-    <sheet name="2024.04.08" sheetId="48" r:id="rId3"/>
-    <sheet name="2024.04.07" sheetId="47" r:id="rId4"/>
-    <sheet name="2024.04.04" sheetId="46" r:id="rId5"/>
-    <sheet name="2024.04.02" sheetId="45" r:id="rId6"/>
-    <sheet name="2024.04.01" sheetId="44" r:id="rId7"/>
-    <sheet name="2024.03.31" sheetId="43" r:id="rId8"/>
-    <sheet name="2024.03.29" sheetId="42" r:id="rId9"/>
-    <sheet name="2024.03.28" sheetId="41" r:id="rId10"/>
-    <sheet name="2024.03.27" sheetId="40" r:id="rId11"/>
-    <sheet name="2024.03.26" sheetId="39" r:id="rId12"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId13"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId14"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId15"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId16"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId17"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId18"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId19"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId20"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId21"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId22"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId23"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId24"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId25"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId26"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId27"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId28"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId29"/>
+    <sheet name="2024.04.10" sheetId="50" r:id="rId2"/>
+    <sheet name="2024.04.09" sheetId="49" r:id="rId3"/>
+    <sheet name="2024.04.08" sheetId="48" r:id="rId4"/>
+    <sheet name="2024.04.07" sheetId="47" r:id="rId5"/>
+    <sheet name="2024.04.04" sheetId="46" r:id="rId6"/>
+    <sheet name="2024.04.02" sheetId="45" r:id="rId7"/>
+    <sheet name="2024.04.01" sheetId="44" r:id="rId8"/>
+    <sheet name="2024.03.31" sheetId="43" r:id="rId9"/>
+    <sheet name="2024.03.29" sheetId="42" r:id="rId10"/>
+    <sheet name="2024.03.28" sheetId="41" r:id="rId11"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId12"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId13"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId14"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId15"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId16"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId17"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId18"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId19"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId20"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId21"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId22"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId23"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId24"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId25"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId26"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId27"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId28"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId29"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="71">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +332,22 @@
   </si>
   <si>
     <t>게시판 권한 확인 유틸리티 클래스 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 - 댓글 등록/수정/삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 - 쓰기(파일 업로드 추가), 보기(파일 다운로드 추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 - 타인 블로그 방문 오류 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게시판 설정 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,11 +1016,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1049,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1058,9 +1075,7 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -1144,11 +1159,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1185,7 +1200,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1201,22 +1216,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1285,11 +1304,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1326,7 +1345,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1335,34 +1354,30 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1430,11 +1445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1464,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1480,30 +1495,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1571,11 +1590,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1600,12 +1619,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1614,21 +1633,25 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -1708,11 +1731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1737,55 +1760,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1853,11 +1868,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1903,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1912,16 +1927,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1931,7 +1944,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -2000,11 +2013,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2050,30 +2063,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2141,11 +2160,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2191,54 +2210,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2294,11 +2301,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2344,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2353,14 +2360,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2369,19 +2378,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2437,11 +2454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B420ACCE-E3D0-4ED2-9A3B-61E58CFB999A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08488894-A81A-40D6-8B4B-2A23E9CA12C8}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2471,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2487,14 +2504,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -2502,25 +2519,35 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2576,11 +2603,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2626,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2642,14 +2669,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -2719,11 +2746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2769,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2785,7 +2812,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2862,11 +2889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2912,7 +2939,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2921,16 +2948,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2939,9 +2964,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3009,11 +3032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3059,28 +3082,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3148,11 +3179,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3198,36 +3229,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3295,11 +3318,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3345,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3354,14 +3377,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3370,7 +3395,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3438,11 +3465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3488,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3497,16 +3524,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3583,11 +3608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3640,20 +3665,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -3722,11 +3753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3772,14 +3803,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -3787,32 +3818,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -3869,11 +3892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3903,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -3918,36 +3941,48 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -4004,11 +4039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49514AD-08B4-4C56-9C72-CD41C44D36C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B420ACCE-E3D0-4ED2-9A3B-61E58CFB999A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4038,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4054,14 +4089,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -4069,19 +4104,148 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4149,11 +4313,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49514AD-08B4-4C56-9C72-CD41C44D36C8}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4178,58 +4342,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="28.5" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>57</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -4298,11 +4458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4327,51 +4487,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="28.5" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4439,11 +4607,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4489,31 +4657,29 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -4582,11 +4748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4632,7 +4798,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4648,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -4657,9 +4823,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4727,11 +4891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4761,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4777,7 +4941,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4802,7 +4966,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4870,11 +5036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4904,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4920,7 +5086,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4936,7 +5102,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,41 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8239AA-69F1-40AC-B245-B0CD02FF467B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF7D1C9-5FDF-46C3-835C-D43B58251D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27705" yWindow="105" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28740" yWindow="30" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.10" sheetId="50" r:id="rId2"/>
-    <sheet name="2024.04.09" sheetId="49" r:id="rId3"/>
-    <sheet name="2024.04.08" sheetId="48" r:id="rId4"/>
-    <sheet name="2024.04.07" sheetId="47" r:id="rId5"/>
-    <sheet name="2024.04.04" sheetId="46" r:id="rId6"/>
-    <sheet name="2024.04.02" sheetId="45" r:id="rId7"/>
-    <sheet name="2024.04.01" sheetId="44" r:id="rId8"/>
-    <sheet name="2024.03.31" sheetId="43" r:id="rId9"/>
-    <sheet name="2024.03.29" sheetId="42" r:id="rId10"/>
-    <sheet name="2024.03.28" sheetId="41" r:id="rId11"/>
-    <sheet name="2024.03.27" sheetId="40" r:id="rId12"/>
-    <sheet name="2024.03.26" sheetId="39" r:id="rId13"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId14"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId15"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId16"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId17"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId18"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId19"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId20"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId21"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId22"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId23"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId24"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId25"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId26"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId27"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId28"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId29"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId30"/>
+    <sheet name="2024.04.11" sheetId="51" r:id="rId2"/>
+    <sheet name="2024.04.10" sheetId="50" r:id="rId3"/>
+    <sheet name="2024.04.09" sheetId="49" r:id="rId4"/>
+    <sheet name="2024.04.08" sheetId="48" r:id="rId5"/>
+    <sheet name="2024.04.07" sheetId="47" r:id="rId6"/>
+    <sheet name="2024.04.04" sheetId="46" r:id="rId7"/>
+    <sheet name="2024.04.02" sheetId="45" r:id="rId8"/>
+    <sheet name="2024.04.01" sheetId="44" r:id="rId9"/>
+    <sheet name="2024.03.31" sheetId="43" r:id="rId10"/>
+    <sheet name="2024.03.29" sheetId="42" r:id="rId11"/>
+    <sheet name="2024.03.28" sheetId="41" r:id="rId12"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId13"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId14"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId15"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId16"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId17"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId18"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId19"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId20"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId21"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId22"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId23"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId24"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId25"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId26"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId27"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId28"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId29"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId30"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="75">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +349,22 @@
   </si>
   <si>
     <t xml:space="preserve">게시판 설정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 보기 작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관리 - 분류 (목록 보기, 추가, 수정, 삭제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관리 - 속성 (목록 보기, 추가, 수정, 삭제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관리 - 게시판 관리(목록 보기, 추가, 수정, 삭제)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,11 +1033,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1050,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1066,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1082,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1159,11 +1176,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1209,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1218,9 +1235,7 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -1304,11 +1319,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1345,7 +1360,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1361,22 +1376,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1445,11 +1464,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1486,7 +1505,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1495,34 +1514,30 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1590,11 +1605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1624,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1640,30 +1655,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1731,11 +1750,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1760,12 +1779,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1774,21 +1793,25 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -1868,11 +1891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1897,55 +1920,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2013,11 +2028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2063,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2072,16 +2087,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2091,7 +2104,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -2160,11 +2173,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2210,30 +2223,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2301,11 +2320,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2351,54 +2370,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2454,11 +2461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08488894-A81A-40D6-8B4B-2A23E9CA12C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AFB55B-1A89-4340-B46E-055B7AA85995}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2488,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2504,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2520,34 +2527,30 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>70</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2603,11 +2606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2653,7 +2656,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2662,14 +2665,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2678,19 +2683,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2746,11 +2759,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2796,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2812,14 +2825,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -2889,11 +2902,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2939,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2955,7 +2968,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3032,11 +3045,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3082,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3091,16 +3104,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3109,9 +3120,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3179,11 +3188,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3229,28 +3238,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3318,11 +3335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3368,36 +3385,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3465,11 +3474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3515,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3524,14 +3533,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3540,7 +3551,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3608,11 +3621,11 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3658,7 +3671,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3667,16 +3680,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3753,11 +3764,11 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3810,20 +3821,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -3892,11 +3909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3942,14 +3959,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -3957,32 +3974,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -4039,11 +4048,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B420ACCE-E3D0-4ED2-9A3B-61E58CFB999A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08488894-A81A-40D6-8B4B-2A23E9CA12C8}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:G9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4073,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4089,14 +4098,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -4104,25 +4113,35 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -4178,6 +4197,153 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -4313,11 +4479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49514AD-08B4-4C56-9C72-CD41C44D36C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B420ACCE-E3D0-4ED2-9A3B-61E58CFB999A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4347,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4363,14 +4529,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -4378,19 +4544,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4458,11 +4618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49514AD-08B4-4C56-9C72-CD41C44D36C8}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4487,58 +4647,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="28.5" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>57</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -4607,11 +4763,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4636,51 +4792,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="28.5" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4748,11 +4912,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4798,31 +4962,29 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -4891,11 +5053,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4941,7 +5103,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4957,7 +5119,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -4966,9 +5128,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -5036,11 +5196,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5070,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -5086,7 +5246,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -5111,7 +5271,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,42 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF7D1C9-5FDF-46C3-835C-D43B58251D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA45AD9-F3FA-472F-8DED-98AD8F3C729E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28740" yWindow="30" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.11" sheetId="51" r:id="rId2"/>
-    <sheet name="2024.04.10" sheetId="50" r:id="rId3"/>
-    <sheet name="2024.04.09" sheetId="49" r:id="rId4"/>
-    <sheet name="2024.04.08" sheetId="48" r:id="rId5"/>
-    <sheet name="2024.04.07" sheetId="47" r:id="rId6"/>
-    <sheet name="2024.04.04" sheetId="46" r:id="rId7"/>
-    <sheet name="2024.04.02" sheetId="45" r:id="rId8"/>
-    <sheet name="2024.04.01" sheetId="44" r:id="rId9"/>
-    <sheet name="2024.03.31" sheetId="43" r:id="rId10"/>
-    <sheet name="2024.03.29" sheetId="42" r:id="rId11"/>
-    <sheet name="2024.03.28" sheetId="41" r:id="rId12"/>
-    <sheet name="2024.03.27" sheetId="40" r:id="rId13"/>
-    <sheet name="2024.03.26" sheetId="39" r:id="rId14"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId15"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId16"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId17"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId18"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId19"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId20"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId21"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId22"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId23"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId24"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId25"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId26"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId27"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId28"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId29"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId30"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId31"/>
+    <sheet name="2024.04.12" sheetId="52" r:id="rId2"/>
+    <sheet name="2024.04.11" sheetId="51" r:id="rId3"/>
+    <sheet name="2024.04.10" sheetId="50" r:id="rId4"/>
+    <sheet name="2024.04.09" sheetId="49" r:id="rId5"/>
+    <sheet name="2024.04.08" sheetId="48" r:id="rId6"/>
+    <sheet name="2024.04.07" sheetId="47" r:id="rId7"/>
+    <sheet name="2024.04.04" sheetId="46" r:id="rId8"/>
+    <sheet name="2024.04.02" sheetId="45" r:id="rId9"/>
+    <sheet name="2024.04.01" sheetId="44" r:id="rId10"/>
+    <sheet name="2024.03.31" sheetId="43" r:id="rId11"/>
+    <sheet name="2024.03.29" sheetId="42" r:id="rId12"/>
+    <sheet name="2024.03.28" sheetId="41" r:id="rId13"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId14"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId15"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId16"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId17"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId18"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId19"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId20"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId21"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId22"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId23"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId24"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId25"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId26"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId27"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId28"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId29"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId30"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId31"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="77">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +367,13 @@
   <si>
     <t>게시판 관리 - 게시판 관리(목록 보기, 추가, 수정, 삭제)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 보기 완료, 추가 작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 - 상단 네비게이션에 전체 사원 목록 표시</t>
   </si>
 </sst>
 </file>
@@ -525,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,6 +569,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -868,20 +879,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -893,17 +904,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -911,17 +922,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -929,17 +940,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -947,17 +958,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -965,17 +976,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -983,17 +994,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1001,17 +1012,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1033,11 +1044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1047,14 +1058,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1066,13 +1077,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1082,13 +1093,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1098,27 +1109,29 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -1126,11 +1139,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -1138,11 +1151,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -1150,11 +1163,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -1176,11 +1189,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1190,14 +1203,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1209,13 +1222,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1225,13 +1238,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1241,13 +1254,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1257,11 +1270,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -1269,11 +1282,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -1281,11 +1294,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -1293,11 +1306,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -1319,11 +1332,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1333,14 +1346,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1352,13 +1365,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1368,31 +1381,29 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1402,11 +1413,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -1414,11 +1425,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -1426,11 +1437,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -1438,11 +1449,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -1464,11 +1475,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1478,14 +1489,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1497,15 +1508,15 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1513,41 +1524,45 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="C5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -1555,11 +1570,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -1567,11 +1582,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -1579,11 +1594,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -1605,11 +1620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1619,14 +1634,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1638,15 +1653,15 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1654,45 +1669,41 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -1700,11 +1711,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -1712,11 +1723,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -1724,11 +1735,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -1750,11 +1761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1764,14 +1775,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1783,13 +1794,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1799,41 +1810,45 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -1841,11 +1856,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -1853,11 +1868,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -1865,11 +1880,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -1891,11 +1906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1905,14 +1920,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1920,45 +1935,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="C4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
@@ -1966,11 +1985,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -1978,11 +1997,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -1990,11 +2009,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2002,11 +2021,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2028,11 +2047,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2042,14 +2061,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2057,65 +2076,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="C3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -2123,11 +2134,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -2135,11 +2146,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2147,11 +2158,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2173,11 +2184,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2187,14 +2198,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2206,13 +2217,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2222,47 +2233,45 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -2270,11 +2279,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -2282,11 +2291,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2294,11 +2303,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2320,11 +2329,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2334,14 +2343,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2353,13 +2362,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2369,41 +2378,47 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -2411,11 +2426,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -2423,11 +2438,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2435,11 +2450,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2461,11 +2476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AFB55B-1A89-4340-B46E-055B7AA85995}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C10D948-A5C4-47A7-8898-07EE492D3320}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2475,14 +2490,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2494,13 +2509,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2510,35 +2525,29 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>71</v>
-      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2568,11 +2577,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2580,24 +2589,22 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2606,11 +2613,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2620,14 +2627,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2639,13 +2646,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2655,65 +2662,53 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -2721,11 +2716,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2733,11 +2728,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2759,11 +2754,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2773,14 +2768,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2792,13 +2787,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2808,55 +2803,65 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -2864,11 +2869,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2876,11 +2881,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2902,11 +2907,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2916,14 +2921,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2935,13 +2940,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2951,13 +2956,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2967,15 +2972,15 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -2983,11 +2988,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -2995,11 +3000,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3007,11 +3012,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3019,11 +3024,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3045,11 +3050,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3059,14 +3064,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3078,13 +3083,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3094,13 +3099,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3110,13 +3115,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -3126,11 +3131,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -3138,11 +3143,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3150,11 +3155,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3162,11 +3167,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3188,11 +3193,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3202,14 +3207,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3221,13 +3226,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3237,47 +3242,43 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -3285,11 +3286,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3297,11 +3298,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3309,11 +3310,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3335,11 +3336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3349,14 +3350,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3368,13 +3369,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3384,39 +3385,47 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -3424,11 +3433,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3436,11 +3445,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3448,11 +3457,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3474,11 +3483,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3488,14 +3497,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3507,13 +3516,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3523,47 +3532,39 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -3571,11 +3572,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3583,11 +3584,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3595,11 +3596,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3621,11 +3622,11 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3635,14 +3636,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3654,13 +3655,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3670,43 +3671,47 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -3714,11 +3719,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3726,11 +3731,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3738,11 +3743,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3764,11 +3769,11 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3778,14 +3783,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3797,13 +3802,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3813,31 +3818,29 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -3847,11 +3850,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -3859,11 +3862,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3871,11 +3874,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3883,11 +3886,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3909,11 +3912,11 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3923,14 +3926,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3942,13 +3945,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3958,39 +3961,45 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -3998,11 +4007,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -4010,11 +4019,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -4022,11 +4031,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -4048,11 +4057,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08488894-A81A-40D6-8B4B-2A23E9CA12C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AFB55B-1A89-4340-B46E-055B7AA85995}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4062,14 +4071,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4081,13 +4090,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4097,13 +4106,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -4113,45 +4122,41 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -4159,11 +4164,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -4171,11 +4176,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -4197,11 +4202,11 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4211,14 +4216,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4230,13 +4235,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4246,15 +4251,15 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -4262,43 +4267,35 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -4306,11 +4303,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -4318,11 +4315,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -4344,6 +4341,153 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -4358,14 +4502,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4377,13 +4521,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4393,11 +4537,11 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
@@ -4405,11 +4549,11 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
@@ -4417,11 +4561,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -4429,11 +4573,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -4441,11 +4585,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -4453,11 +4597,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -4479,11 +4623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B420ACCE-E3D0-4ED2-9A3B-61E58CFB999A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08488894-A81A-40D6-8B4B-2A23E9CA12C8}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:G9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4493,14 +4637,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4512,13 +4656,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4528,15 +4672,15 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -4544,35 +4688,45 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="C5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="C6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -4580,11 +4734,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -4592,11 +4746,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -4618,11 +4772,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49514AD-08B4-4C56-9C72-CD41C44D36C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B420ACCE-E3D0-4ED2-9A3B-61E58CFB999A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4632,14 +4786,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4651,13 +4805,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4667,15 +4821,15 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -4683,29 +4837,23 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -4713,11 +4861,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -4725,11 +4873,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -4737,11 +4885,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -4763,11 +4911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49514AD-08B4-4C56-9C72-CD41C44D36C8}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4777,14 +4925,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4792,69 +4940,65 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="28.5" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>57</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -4862,11 +5006,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -4874,11 +5018,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -4886,11 +5030,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -4912,11 +5056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4926,14 +5070,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4941,61 +5085,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="28.5" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -5003,11 +5155,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -5015,11 +5167,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -5027,11 +5179,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -5053,11 +5205,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5067,14 +5219,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5086,13 +5238,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -5102,43 +5254,41 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -5146,11 +5296,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -5158,11 +5308,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -5170,11 +5320,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -5196,11 +5346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5210,14 +5360,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5229,13 +5379,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -5245,13 +5395,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -5261,29 +5411,27 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -5291,11 +5439,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -5303,11 +5451,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -5315,11 +5463,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA45AD9-F3FA-472F-8DED-98AD8F3C729E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFEC4DF-F6C6-479F-AEF6-58D96261E181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28740" yWindow="30" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="77">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,11 +369,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>목록 보기 완료, 추가 작업중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블로그 - 상단 네비게이션에 전체 사원 목록 표시</t>
+    <t>게시판 관리 - 게시판 관리(추가, 수정, 삭제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 - 수정, 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -533,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,9 +570,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -879,20 +877,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -904,17 +902,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -922,17 +920,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -940,17 +938,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -958,17 +956,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -976,17 +974,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -994,17 +992,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1012,17 +1010,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1058,14 +1056,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1077,13 +1075,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1093,13 +1091,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1109,13 +1107,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1127,11 +1125,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -1139,11 +1137,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -1151,11 +1149,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -1163,11 +1161,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -1203,14 +1201,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1222,13 +1220,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1238,13 +1236,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1254,13 +1252,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1270,11 +1268,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -1282,11 +1280,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -1294,11 +1292,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -1306,11 +1304,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -1346,14 +1344,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1365,13 +1363,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1381,13 +1379,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1397,13 +1395,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1413,11 +1411,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -1425,11 +1423,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -1437,11 +1435,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -1449,11 +1447,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -1489,14 +1487,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1508,13 +1506,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1524,13 +1522,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1542,13 +1540,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1558,11 +1556,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -1570,11 +1568,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -1582,11 +1580,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -1594,11 +1592,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -1634,14 +1632,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1653,13 +1651,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1669,13 +1667,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1687,11 +1685,11 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
@@ -1699,11 +1697,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -1711,11 +1709,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -1723,11 +1721,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -1735,11 +1733,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -1775,14 +1773,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1794,13 +1792,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1810,13 +1808,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1826,13 +1824,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1844,11 +1842,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -1856,11 +1854,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -1868,11 +1866,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -1880,11 +1878,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -1920,14 +1918,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1939,13 +1937,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1955,13 +1953,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1973,11 +1971,11 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
@@ -1985,11 +1983,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -1997,11 +1995,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -2009,11 +2007,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2021,11 +2019,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2061,14 +2059,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2080,13 +2078,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2098,11 +2096,11 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
@@ -2110,11 +2108,11 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
@@ -2122,11 +2120,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -2134,11 +2132,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -2146,11 +2144,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2158,11 +2156,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2198,14 +2196,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2217,13 +2215,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2233,13 +2231,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2249,13 +2247,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2267,11 +2265,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -2279,11 +2277,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -2291,11 +2289,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2303,11 +2301,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2343,14 +2341,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2362,13 +2360,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2378,13 +2376,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2396,13 +2394,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2414,11 +2412,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -2426,11 +2424,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -2438,11 +2436,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2450,11 +2448,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2480,7 +2478,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2490,14 +2488,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2509,13 +2507,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="C3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2525,29 +2523,27 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>75</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2577,11 +2573,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2589,22 +2585,24 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2627,14 +2625,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2646,13 +2644,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2662,13 +2660,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2680,11 +2678,11 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
@@ -2692,11 +2690,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -2704,11 +2702,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -2716,11 +2714,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2728,11 +2726,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2768,14 +2766,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2787,13 +2785,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2803,13 +2801,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2821,13 +2819,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2839,13 +2837,13 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8" t="s">
         <v>9</v>
       </c>
@@ -2857,11 +2855,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -2869,11 +2867,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -2881,11 +2879,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -2921,14 +2919,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2940,13 +2938,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2956,13 +2954,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2972,13 +2970,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2988,11 +2986,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -3000,11 +2998,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3012,11 +3010,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3024,11 +3022,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3064,14 +3062,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3083,13 +3081,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3099,13 +3097,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3115,13 +3113,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -3131,11 +3129,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -3143,11 +3141,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3155,11 +3153,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3167,11 +3165,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3207,14 +3205,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3226,13 +3224,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3242,13 +3240,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3258,13 +3256,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -3274,11 +3272,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -3286,11 +3284,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3298,11 +3296,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3310,11 +3308,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3350,14 +3348,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3369,13 +3367,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3385,13 +3383,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3403,13 +3401,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -3421,11 +3419,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -3433,11 +3431,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3445,11 +3443,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3457,11 +3455,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3497,14 +3495,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3516,13 +3514,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3532,13 +3530,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
@@ -3548,11 +3546,11 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
@@ -3560,11 +3558,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -3572,11 +3570,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3584,11 +3582,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3596,11 +3594,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3636,14 +3634,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3655,13 +3653,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3671,13 +3669,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3689,13 +3687,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -3707,11 +3705,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -3719,11 +3717,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3731,11 +3729,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3743,11 +3741,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3783,14 +3781,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3802,13 +3800,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3818,13 +3816,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3834,13 +3832,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -3850,11 +3848,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -3862,11 +3860,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -3874,11 +3872,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -3886,11 +3884,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -3926,14 +3924,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3945,13 +3943,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3961,13 +3959,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3979,13 +3977,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -3995,11 +3993,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -4007,11 +4005,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -4019,11 +4017,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -4031,11 +4029,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -4071,14 +4069,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4090,13 +4088,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4106,13 +4104,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -4122,13 +4120,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>65</v>
       </c>
@@ -4140,11 +4138,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -4152,11 +4150,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -4164,11 +4162,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -4176,11 +4174,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -4216,14 +4214,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4235,13 +4233,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4251,13 +4249,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
@@ -4267,11 +4265,11 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
@@ -4279,11 +4277,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -4291,11 +4289,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -4303,11 +4301,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -4315,11 +4313,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -4355,14 +4353,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4374,13 +4372,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4390,13 +4388,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -4406,13 +4404,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
@@ -4422,13 +4420,13 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8" t="s">
         <v>9</v>
       </c>
@@ -4438,11 +4436,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -4450,11 +4448,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -4462,11 +4460,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -4502,14 +4500,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4521,13 +4519,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4537,11 +4535,11 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
@@ -4549,11 +4547,11 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
@@ -4561,11 +4559,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -4573,11 +4571,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -4585,11 +4583,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -4597,11 +4595,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -4637,14 +4635,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4656,13 +4654,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4672,13 +4670,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -4688,13 +4686,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
@@ -4704,13 +4702,13 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8" t="s">
         <v>65</v>
       </c>
@@ -4722,11 +4720,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -4734,11 +4732,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -4746,11 +4744,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -4786,14 +4784,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4805,13 +4803,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4821,13 +4819,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>65</v>
       </c>
@@ -4837,11 +4835,11 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
@@ -4849,11 +4847,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -4861,11 +4859,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -4873,11 +4871,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -4885,11 +4883,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -4925,14 +4923,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4944,13 +4942,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -4960,13 +4958,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -4976,13 +4974,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>65</v>
       </c>
@@ -4994,11 +4992,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -5006,11 +5004,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -5018,11 +5016,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -5030,11 +5028,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -5070,14 +5068,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5089,13 +5087,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>56</v>
       </c>
@@ -5107,13 +5105,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>56</v>
       </c>
@@ -5125,13 +5123,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -5143,11 +5141,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -5155,11 +5153,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -5167,11 +5165,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -5179,11 +5177,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -5219,14 +5217,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5238,13 +5236,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -5254,13 +5252,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
@@ -5272,11 +5270,11 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
@@ -5284,11 +5282,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -5296,11 +5294,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -5308,11 +5306,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -5320,11 +5318,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>
@@ -5360,14 +5358,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5379,13 +5377,13 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
@@ -5395,13 +5393,13 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
@@ -5411,13 +5409,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
@@ -5427,11 +5425,11 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
@@ -5439,11 +5437,11 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7"/>
     </row>
@@ -5451,11 +5449,11 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
     </row>
@@ -5463,11 +5461,11 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
       <c r="I9" s="2"/>
     </row>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,43 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFEC4DF-F6C6-479F-AEF6-58D96261E181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCAAE5F-5145-4B74-80E7-D2913C3D9E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21675" yWindow="645" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.12" sheetId="52" r:id="rId2"/>
-    <sheet name="2024.04.11" sheetId="51" r:id="rId3"/>
-    <sheet name="2024.04.10" sheetId="50" r:id="rId4"/>
-    <sheet name="2024.04.09" sheetId="49" r:id="rId5"/>
-    <sheet name="2024.04.08" sheetId="48" r:id="rId6"/>
-    <sheet name="2024.04.07" sheetId="47" r:id="rId7"/>
-    <sheet name="2024.04.04" sheetId="46" r:id="rId8"/>
-    <sheet name="2024.04.02" sheetId="45" r:id="rId9"/>
-    <sheet name="2024.04.01" sheetId="44" r:id="rId10"/>
-    <sheet name="2024.03.31" sheetId="43" r:id="rId11"/>
-    <sheet name="2024.03.29" sheetId="42" r:id="rId12"/>
-    <sheet name="2024.03.28" sheetId="41" r:id="rId13"/>
-    <sheet name="2024.03.27" sheetId="40" r:id="rId14"/>
-    <sheet name="2024.03.26" sheetId="39" r:id="rId15"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId16"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId17"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId18"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId19"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId20"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId21"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId22"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId23"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId24"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId25"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId26"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId27"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId28"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId29"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId30"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId31"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId32"/>
+    <sheet name="2024.04.14" sheetId="53" r:id="rId2"/>
+    <sheet name="2024.04.12" sheetId="52" r:id="rId3"/>
+    <sheet name="2024.04.11" sheetId="51" r:id="rId4"/>
+    <sheet name="2024.04.10" sheetId="50" r:id="rId5"/>
+    <sheet name="2024.04.09" sheetId="49" r:id="rId6"/>
+    <sheet name="2024.04.08" sheetId="48" r:id="rId7"/>
+    <sheet name="2024.04.07" sheetId="47" r:id="rId8"/>
+    <sheet name="2024.04.04" sheetId="46" r:id="rId9"/>
+    <sheet name="2024.04.02" sheetId="45" r:id="rId10"/>
+    <sheet name="2024.04.01" sheetId="44" r:id="rId11"/>
+    <sheet name="2024.03.31" sheetId="43" r:id="rId12"/>
+    <sheet name="2024.03.29" sheetId="42" r:id="rId13"/>
+    <sheet name="2024.03.28" sheetId="41" r:id="rId14"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId15"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId16"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId17"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId18"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId19"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId20"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId21"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId22"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId23"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId24"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId25"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId26"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId27"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId28"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId29"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId30"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId31"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId32"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="82">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +375,26 @@
   </si>
   <si>
     <t>블로그 - 수정, 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 - 폴더 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블로그 - 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 포기(시간없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDT 결과 보고서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 수행 경과 페이지 남음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1042,11 +1063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1092,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1108,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1117,9 +1138,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1187,11 +1206,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1221,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1237,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1262,7 +1281,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1330,11 +1351,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1364,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1380,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1396,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1473,11 +1494,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1523,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1532,9 +1553,7 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -1618,11 +1637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1659,7 +1678,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1675,22 +1694,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1759,11 +1782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1800,7 +1823,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1809,34 +1832,30 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1904,11 +1923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1938,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1954,30 +1973,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2045,11 +2068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2074,12 +2097,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2088,21 +2111,25 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -2182,11 +2209,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2211,55 +2238,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2327,11 +2346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2377,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2386,16 +2405,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2405,7 +2422,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -2474,11 +2491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C10D948-A5C4-47A7-8898-07EE492D3320}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47D007D-B38E-44EA-8E03-6C3930BB0444}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2508,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2524,14 +2541,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -2539,23 +2556,37 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2567,7 +2598,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="5">
@@ -2579,7 +2610,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="9">
@@ -2598,9 +2629,9 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C3:G3"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
   </mergeCells>
@@ -2611,11 +2642,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2661,30 +2692,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2752,11 +2789,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2802,54 +2839,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2905,11 +2930,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2955,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2964,14 +2989,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2980,19 +3007,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -3048,11 +3083,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3098,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3114,14 +3149,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -3191,11 +3226,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3241,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3257,7 +3292,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3334,11 +3369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3384,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3393,16 +3428,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3411,9 +3444,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3481,11 +3512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3531,28 +3562,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3620,11 +3659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3670,36 +3709,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3767,11 +3798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3817,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3826,14 +3857,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3842,7 +3875,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3910,11 +3945,11 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3960,7 +3995,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3969,16 +4004,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -4055,11 +4088,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AFB55B-1A89-4340-B46E-055B7AA85995}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C10D948-A5C4-47A7-8898-07EE492D3320}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4089,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4105,14 +4138,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -4120,19 +4153,11 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4187,9 +4212,9 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C3:G3"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
   </mergeCells>
@@ -4200,11 +4225,11 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4257,20 +4282,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -4339,11 +4370,11 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4389,14 +4420,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -4404,32 +4435,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -4486,6 +4509,153 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -4621,11 +4791,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08488894-A81A-40D6-8B4B-2A23E9CA12C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AFB55B-1A89-4340-B46E-055B7AA85995}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4655,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4671,7 +4841,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4687,34 +4857,30 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>70</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -4770,11 +4936,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B420ACCE-E3D0-4ED2-9A3B-61E58CFB999A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08488894-A81A-40D6-8B4B-2A23E9CA12C8}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:G9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4804,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4820,14 +4986,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -4835,25 +5001,35 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -4909,11 +5085,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49514AD-08B4-4C56-9C72-CD41C44D36C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B420ACCE-E3D0-4ED2-9A3B-61E58CFB999A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4943,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4959,14 +5135,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -4974,19 +5150,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -5054,11 +5224,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49514AD-08B4-4C56-9C72-CD41C44D36C8}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5083,58 +5253,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="28.5" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>57</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -5203,11 +5369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5232,51 +5398,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="28.5" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -5344,11 +5518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5394,31 +5568,29 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 전우성.xlsx
@@ -8,44 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EZEN Academy\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCAAE5F-5145-4B74-80E7-D2913C3D9E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C5D197-191C-4246-863F-F99C6B68002C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21675" yWindow="645" windowWidth="29040" windowHeight="15450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27600" yWindow="285" windowWidth="29040" windowHeight="15195" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.14" sheetId="53" r:id="rId2"/>
-    <sheet name="2024.04.12" sheetId="52" r:id="rId3"/>
-    <sheet name="2024.04.11" sheetId="51" r:id="rId4"/>
-    <sheet name="2024.04.10" sheetId="50" r:id="rId5"/>
-    <sheet name="2024.04.09" sheetId="49" r:id="rId6"/>
-    <sheet name="2024.04.08" sheetId="48" r:id="rId7"/>
-    <sheet name="2024.04.07" sheetId="47" r:id="rId8"/>
-    <sheet name="2024.04.04" sheetId="46" r:id="rId9"/>
-    <sheet name="2024.04.02" sheetId="45" r:id="rId10"/>
-    <sheet name="2024.04.01" sheetId="44" r:id="rId11"/>
-    <sheet name="2024.03.31" sheetId="43" r:id="rId12"/>
-    <sheet name="2024.03.29" sheetId="42" r:id="rId13"/>
-    <sheet name="2024.03.28" sheetId="41" r:id="rId14"/>
-    <sheet name="2024.03.27" sheetId="40" r:id="rId15"/>
-    <sheet name="2024.03.26" sheetId="39" r:id="rId16"/>
-    <sheet name="2024.03.25" sheetId="38" r:id="rId17"/>
-    <sheet name="2024.03.24" sheetId="37" r:id="rId18"/>
-    <sheet name="2024.03.22" sheetId="36" r:id="rId19"/>
-    <sheet name="2024.03.21" sheetId="35" r:id="rId20"/>
-    <sheet name="2024.03.20" sheetId="34" r:id="rId21"/>
-    <sheet name="2024.03.19" sheetId="33" r:id="rId22"/>
-    <sheet name="2024.03.15" sheetId="32" r:id="rId23"/>
-    <sheet name="2024.03.14" sheetId="31" r:id="rId24"/>
-    <sheet name="2024.03.13" sheetId="30" r:id="rId25"/>
-    <sheet name="2024.03.12" sheetId="29" r:id="rId26"/>
-    <sheet name="2024.03.11" sheetId="28" r:id="rId27"/>
-    <sheet name="2024.03.07" sheetId="27" r:id="rId28"/>
-    <sheet name="2024.03.06" sheetId="26" r:id="rId29"/>
-    <sheet name="2024.02.29" sheetId="25" r:id="rId30"/>
-    <sheet name="2024.02.28" sheetId="24" r:id="rId31"/>
-    <sheet name="2024.02.27" sheetId="23" r:id="rId32"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId33"/>
+    <sheet name="2024.04.15" sheetId="54" r:id="rId2"/>
+    <sheet name="2024.04.14" sheetId="53" r:id="rId3"/>
+    <sheet name="2024.04.12" sheetId="52" r:id="rId4"/>
+    <sheet name="2024.04.11" sheetId="51" r:id="rId5"/>
+    <sheet name="2024.04.10" sheetId="50" r:id="rId6"/>
+    <sheet name="2024.04.09" sheetId="49" r:id="rId7"/>
+    <sheet name="2024.04.08" sheetId="48" r:id="rId8"/>
+    <sheet name="2024.04.07" sheetId="47" r:id="rId9"/>
+    <sheet name="2024.04.04" sheetId="46" r:id="rId10"/>
+    <sheet name="2024.04.02" sheetId="45" r:id="rId11"/>
+    <sheet name="2024.04.01" sheetId="44" r:id="rId12"/>
+    <sheet name="2024.03.31" sheetId="43" r:id="rId13"/>
+    <sheet name="2024.03.29" sheetId="42" r:id="rId14"/>
+    <sheet name="2024.03.28" sheetId="41" r:id="rId15"/>
+    <sheet name="2024.03.27" sheetId="40" r:id="rId16"/>
+    <sheet name="2024.03.26" sheetId="39" r:id="rId17"/>
+    <sheet name="2024.03.25" sheetId="38" r:id="rId18"/>
+    <sheet name="2024.03.24" sheetId="37" r:id="rId19"/>
+    <sheet name="2024.03.22" sheetId="36" r:id="rId20"/>
+    <sheet name="2024.03.21" sheetId="35" r:id="rId21"/>
+    <sheet name="2024.03.20" sheetId="34" r:id="rId22"/>
+    <sheet name="2024.03.19" sheetId="33" r:id="rId23"/>
+    <sheet name="2024.03.15" sheetId="32" r:id="rId24"/>
+    <sheet name="2024.03.14" sheetId="31" r:id="rId25"/>
+    <sheet name="2024.03.13" sheetId="30" r:id="rId26"/>
+    <sheet name="2024.03.12" sheetId="29" r:id="rId27"/>
+    <sheet name="2024.03.11" sheetId="28" r:id="rId28"/>
+    <sheet name="2024.03.07" sheetId="27" r:id="rId29"/>
+    <sheet name="2024.03.06" sheetId="26" r:id="rId30"/>
+    <sheet name="2024.02.29" sheetId="25" r:id="rId31"/>
+    <sheet name="2024.02.28" sheetId="24" r:id="rId32"/>
+    <sheet name="2024.02.27" sheetId="23" r:id="rId33"/>
+    <sheet name="2024.02.26" sheetId="22" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="86">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +396,22 @@
   </si>
   <si>
     <t>프로젝트 수행 경과 페이지 남음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 및 디버그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">버그 몇 개 수정하였음. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표자료 만들기(웹서버 데이터 넣기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업중에 서버가 죽어서 중단.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,6 +621,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1063,11 +1083,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1113,31 +1133,29 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1206,11 +1224,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5EB33-6439-4685-9799-897A8D343FA5}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1256,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1272,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1281,9 +1299,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1351,11 +1367,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0137E-6291-4216-8E50-C60E4FCE8C3C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1385,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1401,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1426,7 +1442,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -1494,11 +1512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718C209A-E483-436D-8FA8-753B8FE06528}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1528,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1544,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1560,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1637,11 +1655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E0038-1D72-46F4-B8A0-8B8E25BE909B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1687,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1696,9 +1714,7 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -1782,11 +1798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57853C-48CE-4491-A2C7-82A134B18B3E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1823,7 +1839,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1839,22 +1855,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -1923,11 +1943,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5A7F92-DD3E-41B8-BFA0-816C971CCB65}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1964,7 +1984,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1973,34 +1993,30 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2068,11 +2084,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C0DF8-CD00-4172-9C19-98123581033D}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2102,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2118,30 +2134,34 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2209,11 +2229,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD87891-73F8-491E-B43E-7DD0E4FE67FB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2238,12 +2258,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="54.75" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2252,21 +2272,25 @@
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
@@ -2346,11 +2370,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D742C-6180-4FD6-AE1C-1C1C8228C55E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2375,55 +2399,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="54.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2491,11 +2507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47D007D-B38E-44EA-8E03-6C3930BB0444}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1906CE1D-8173-4E26-96B2-1E62F7B6F1CB}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2525,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2541,52 +2557,48 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>79</v>
+        <v>9</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -2642,11 +2654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F631D-F649-4521-B0E6-71013DCB259C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2692,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2701,16 +2713,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2720,7 +2730,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -2789,11 +2799,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D306E-694A-4DCF-AB39-FFC3AD38E86B}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2839,30 +2849,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -2930,11 +2946,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FC024B-72B3-422A-AF22-B17E808FF143}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2980,54 +2996,42 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -3083,11 +3087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C3B3B-74D7-4B15-987F-37D8632D518E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3133,7 +3137,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3142,14 +3146,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3158,19 +3164,27 @@
       <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -3226,11 +3240,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC742FC-9298-4095-B078-FBDF18BF8267}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3276,7 +3290,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3292,14 +3306,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -3369,11 +3383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D90DB0A-8B25-406D-8506-8E9D7B4E3CC0}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3419,7 +3433,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3435,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3512,11 +3526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD1008-91FE-45B1-85C0-68C92A436331}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3562,7 +3576,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3571,16 +3585,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -3589,9 +3601,7 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3659,11 +3669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B0130-AD0C-4BAA-B1AA-640BC5E2E888}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3709,28 +3719,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3798,11 +3816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E007442-5066-4FF8-8386-ABDF92054D3A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3848,36 +3866,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -3945,11 +3955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0DB8C6-E111-425A-BD9B-B29D64ACFC31}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3995,7 +4005,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4004,14 +4014,16 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -4020,7 +4032,9 @@
       <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -4088,11 +4102,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C10D948-A5C4-47A7-8898-07EE492D3320}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47D007D-B38E-44EA-8E03-6C3930BB0444}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4122,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4138,14 +4152,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -4153,23 +4167,37 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -4181,7 +4209,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="5">
@@ -4193,7 +4221,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="9">
@@ -4212,9 +4240,9 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C3:G3"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
   </mergeCells>
@@ -4225,11 +4253,11 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19C0369-4195-4D78-A020-C29F431FBC52}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4275,7 +4303,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4284,16 +4312,14 @@
       <c r="H4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -4370,11 +4396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF2127F-442A-440C-9229-C928F1C0F416}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4427,20 +4453,26 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
@@ -4509,11 +4541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB6CA5-2761-47E2-8457-838DEC25E77C}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4559,14 +4591,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -4574,32 +4606,24 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9">
@@ -4656,6 +4680,153 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4346D-2979-49BC-A8D0-488AE682A304}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -4791,6 +4962,143 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C10D948-A5C4-47A7-8898-07EE492D3320}">
+  <dimension ref="B2:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AFB55B-1A89-4340-B46E-055B7AA85995}">
   <dimension ref="B2:I9"/>
   <sheetViews>
@@ -4881,155 +5189,6 @@
       <c r="G6" s="13"/>
       <c r="H6" s="8"/>
       <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08488894-A81A-40D6-8B4B-2A23E9CA12C8}">
-  <dimension ref="B2:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="7" width="15" customWidth="1"/>
-    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -5085,11 +5244,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B420ACCE-E3D0-4ED2-9A3B-61E58CFB999A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08488894-A81A-40D6-8B4B-2A23E9CA12C8}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:G9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5119,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -5135,14 +5294,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -5150,25 +5309,35 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5">
@@ -5224,11 +5393,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49514AD-08B4-4C56-9C72-CD41C44D36C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B420ACCE-E3D0-4ED2-9A3B-61E58CFB999A}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5258,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -5274,14 +5443,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -5289,19 +5458,13 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
@@ -5369,11 +5532,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49514AD-08B4-4C56-9C72-CD41C44D36C8}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5398,58 +5561,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="28.5" customHeight="1">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>57</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -5518,11 +5677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF7926-4F64-46FF-80F9-13481CEF5C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65FEE-610A-426E-9618-9B084C3C7140}">
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5547,51 +5706,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="28.5" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5">
